--- a/Instances/05_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/05_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -3069,13 +3069,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21836</v>
+        <v>31912</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>24.939096</v>
+        <v>58.96581600000001</v>
       </c>
       <c r="F2" t="n">
         <v>0.01512</v>
@@ -3109,7 +3109,7 @@
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>8.784216000000001</v>
+        <v>20.769336</v>
       </c>
       <c r="F3" t="n">
         <v>0.011168</v>
@@ -3143,7 +3143,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>2.608480000000001</v>
+        <v>4.085888000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.04489600000000001</v>
@@ -3177,7 +3177,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>10.282736</v>
+        <v>29.528928</v>
       </c>
       <c r="F5" t="n">
         <v>0.0444</v>
@@ -3211,7 +3211,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1448</v>
+        <v>1.495872</v>
       </c>
       <c r="F6" t="n">
         <v>0.04977599999999999</v>
@@ -3245,7 +3245,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>11.831288</v>
+        <v>26.075672</v>
       </c>
       <c r="F7" t="n">
         <v>0.0512</v>
@@ -3273,13 +3273,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>21836</v>
+        <v>31912</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>8.077440000000001</v>
+        <v>19.09824</v>
       </c>
       <c r="F8" t="n">
         <v>0.00128</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>21836</v>
+        <v>31912</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>12.520032</v>
+        <v>29.602272</v>
       </c>
       <c r="F9" t="n">
         <v>0.001984</v>
@@ -3341,13 +3341,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>21836</v>
+        <v>31912</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>12.11616</v>
+        <v>28.64736</v>
       </c>
       <c r="F10" t="n">
         <v>0.00192</v>
@@ -3375,13 +3375,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>21836</v>
+        <v>31912</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>8.582280000000001</v>
+        <v>20.29188</v>
       </c>
       <c r="F11" t="n">
         <v>0.00136</v>
@@ -3409,13 +3409,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>21836</v>
+        <v>31912</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>8.380343999999999</v>
+        <v>19.814424</v>
       </c>
       <c r="F12" t="n">
         <v>0.001328</v>
@@ -3443,13 +3443,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>21836</v>
+        <v>31912</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>12.015192</v>
+        <v>28.408632</v>
       </c>
       <c r="F13" t="n">
         <v>0.001904</v>
@@ -3477,13 +3477,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2354</v>
+        <v>2667</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9805600000000001</v>
+        <v>1.535936</v>
       </c>
       <c r="F14" t="n">
         <v>0.001648</v>
@@ -3511,13 +3511,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>11441</v>
+        <v>22294</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>73.61414400000001</v>
+        <v>193.988064</v>
       </c>
       <c r="F15" t="n">
         <v>0.022416</v>
@@ -3545,13 +3545,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>9087</v>
+        <v>19627</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>4.603568</v>
+        <v>13.220064</v>
       </c>
       <c r="F16" t="n">
         <v>0.001712</v>
@@ -3579,13 +3579,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>21836</v>
+        <v>31912</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>8.380343999999999</v>
+        <v>19.814424</v>
       </c>
       <c r="F17" t="n">
         <v>0.001328</v>
@@ -3613,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2540</v>
+        <v>1339</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9144</v>
+        <v>1.194816</v>
       </c>
       <c r="F18" t="n">
         <v>0.002032</v>
@@ -3647,13 +3647,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>10395</v>
+        <v>9618</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>87.017928</v>
+        <v>180.174408</v>
       </c>
       <c r="F19" t="n">
         <v>0.028752</v>
@@ -3681,13 +3681,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>7855</v>
+        <v>8279</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>3.627712</v>
+        <v>7.995328000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.001408</v>
@@ -3715,13 +3715,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>638</v>
+        <v>1428</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.567392</v>
+        <v>0.8939280000000001</v>
       </c>
       <c r="F21" t="n">
         <v>0.04680000000000001</v>
@@ -3749,13 +3749,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1173</v>
+        <v>473</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.68904</v>
+        <v>1.073</v>
       </c>
       <c r="F22" t="n">
         <v>0.04721600000000001</v>
@@ -3783,13 +3783,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>7394</v>
+        <v>9720</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>1.822688</v>
+        <v>9.385200000000001</v>
       </c>
       <c r="F23" t="n">
         <v>0.046928</v>
@@ -3817,13 +3817,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>4977</v>
+        <v>7448</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>7.55712</v>
+        <v>15.39648</v>
       </c>
       <c r="F24" t="n">
         <v>0.04824000000000001</v>
@@ -3851,13 +3851,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.464256</v>
+        <v>0.5472</v>
       </c>
       <c r="F25" t="n">
         <v>0.05207999999999999</v>
@@ -3885,13 +3885,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1368</v>
+        <v>877</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.497</v>
+        <v>0.7010000000000001</v>
       </c>
       <c r="F26" t="n">
         <v>0.051776</v>
@@ -3919,13 +3919,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>9602</v>
+        <v>4392</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>3.473832</v>
+        <v>5.492496000000001</v>
       </c>
       <c r="F27" t="n">
         <v>0.053744</v>
@@ -3953,13 +3953,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>4229</v>
+        <v>10996</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>3.836448</v>
+        <v>11.149776</v>
       </c>
       <c r="F28" t="n">
         <v>0.054368</v>
@@ -3988,7 +3988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4195,28 +4195,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>163</v>
+        <v>703</v>
       </c>
       <c r="V2" t="n">
-        <v>602</v>
+        <v>260</v>
       </c>
       <c r="W2" t="n">
-        <v>2626</v>
+        <v>5067</v>
       </c>
       <c r="X2" t="n">
-        <v>2801</v>
+        <v>4291</v>
       </c>
       <c r="Y2" t="n">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="Z2" t="n">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1970</v>
+        <v>2988</v>
       </c>
       <c r="AB2" t="n">
-        <v>1892</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="3">
@@ -4281,28 +4281,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="V3" t="n">
-        <v>571</v>
+        <v>213</v>
       </c>
       <c r="W3" t="n">
-        <v>4768</v>
+        <v>4653</v>
       </c>
       <c r="X3" t="n">
-        <v>2176</v>
+        <v>3157</v>
       </c>
       <c r="Y3" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>697</v>
+        <v>877</v>
       </c>
       <c r="AA3" t="n">
-        <v>7632</v>
+        <v>1404</v>
       </c>
       <c r="AB3" t="n">
-        <v>2337</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="4">
@@ -4367,28 +4367,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>655</v>
+        <v>799</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="W4" t="n">
-        <v>1249</v>
+        <v>5100</v>
       </c>
       <c r="X4" t="n">
-        <v>3760</v>
+        <v>6410</v>
       </c>
       <c r="Y4" t="n">
-        <v>332</v>
+        <v>469</v>
       </c>
       <c r="Z4" t="n">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="AA4" t="n">
-        <v>1091</v>
+        <v>5674</v>
       </c>
       <c r="AB4" t="n">
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4453,28 +4453,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1438</v>
+        <v>370</v>
       </c>
       <c r="V5" t="n">
-        <v>261</v>
+        <v>676</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4367</v>
       </c>
       <c r="X5" t="n">
-        <v>4078</v>
+        <v>3750</v>
       </c>
       <c r="Y5" t="n">
-        <v>1268</v>
+        <v>698</v>
       </c>
       <c r="Z5" t="n">
-        <v>706</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3211</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2433</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="6">
@@ -4539,28 +4539,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="V6" t="n">
-        <v>667</v>
+        <v>255</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8589</v>
       </c>
       <c r="X6" t="n">
-        <v>5071</v>
+        <v>7046</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="Z6" t="n">
-        <v>545</v>
+        <v>1043</v>
       </c>
       <c r="AA6" t="n">
-        <v>2378</v>
+        <v>2048</v>
       </c>
       <c r="AB6" t="n">
-        <v>1478</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="7">
@@ -4625,28 +4625,458 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>845</v>
+        <v>912</v>
       </c>
       <c r="V7" t="n">
-        <v>1458</v>
+        <v>594</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>1461</v>
       </c>
       <c r="X7" t="n">
-        <v>5727</v>
+        <v>3611</v>
       </c>
       <c r="Y7" t="n">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="Z7" t="n">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="AA7" t="n">
-        <v>102</v>
+        <v>4479</v>
       </c>
       <c r="AB7" t="n">
-        <v>5267</v>
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>302</v>
+      </c>
+      <c r="V8" t="n">
+        <v>113</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1695</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2738</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2268</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>773</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3816</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4817</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2607</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>268</v>
+      </c>
+      <c r="V10" t="n">
+        <v>942</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4878</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6718</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>250</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>643</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>435</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>251</v>
+      </c>
+      <c r="V11" t="n">
+        <v>543</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1236</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5574</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>925</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1013</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>589</v>
+      </c>
+      <c r="V12" t="n">
+        <v>355</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3683</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>348</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2991</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2690</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +5090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4867,28 +5297,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>20.375</v>
+        <v>87.875</v>
       </c>
       <c r="V2" t="n">
-        <v>75.25</v>
+        <v>32.5</v>
       </c>
       <c r="W2" t="n">
-        <v>328.25</v>
+        <v>633.375</v>
       </c>
       <c r="X2" t="n">
-        <v>350.125</v>
+        <v>536.375</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.375</v>
+        <v>31.125</v>
       </c>
       <c r="Z2" t="n">
-        <v>83.875</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.25</v>
+        <v>373.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.5</v>
+        <v>554.125</v>
       </c>
     </row>
     <row r="3">
@@ -4953,28 +5383,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>89.0625</v>
+        <v>135.9375</v>
       </c>
       <c r="V3" t="n">
-        <v>107.0625</v>
+        <v>39.9375</v>
       </c>
       <c r="W3" t="n">
-        <v>894</v>
+        <v>872.4375</v>
       </c>
       <c r="X3" t="n">
-        <v>408</v>
+        <v>591.9375</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>130.6875</v>
+        <v>164.4375</v>
       </c>
       <c r="AA3" t="n">
-        <v>1431</v>
+        <v>263.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>438.1875</v>
+        <v>1230.5625</v>
       </c>
     </row>
     <row r="4">
@@ -5039,28 +5469,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>143.28125</v>
+        <v>174.78125</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>179.8125</v>
       </c>
       <c r="W4" t="n">
-        <v>273.21875</v>
+        <v>1115.625</v>
       </c>
       <c r="X4" t="n">
-        <v>822.5</v>
+        <v>1402.1875</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.625</v>
+        <v>102.59375</v>
       </c>
       <c r="Z4" t="n">
-        <v>51.1875</v>
+        <v>37.625</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.65625</v>
+        <v>1241.1875</v>
       </c>
       <c r="AB4" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5125,28 +5555,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>337.03125</v>
+        <v>86.71875</v>
       </c>
       <c r="V5" t="n">
-        <v>61.171875</v>
+        <v>158.4375</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1023.515625</v>
       </c>
       <c r="X5" t="n">
-        <v>955.78125</v>
+        <v>878.90625</v>
       </c>
       <c r="Y5" t="n">
-        <v>297.1875</v>
+        <v>163.59375</v>
       </c>
       <c r="Z5" t="n">
-        <v>165.46875</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>752.578125</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>570.234375</v>
+        <v>610.546875</v>
       </c>
     </row>
     <row r="6">
@@ -5211,28 +5641,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>172.1953125</v>
       </c>
       <c r="V6" t="n">
-        <v>161.5390625</v>
+        <v>61.7578125</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2080.1484375</v>
       </c>
       <c r="X6" t="n">
-        <v>1228.1328125</v>
+        <v>1706.453125</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>105.109375</v>
       </c>
       <c r="Z6" t="n">
-        <v>131.9921875</v>
+        <v>252.6015625</v>
       </c>
       <c r="AA6" t="n">
-        <v>575.921875</v>
+        <v>496</v>
       </c>
       <c r="AB6" t="n">
-        <v>357.953125</v>
+        <v>639.1328125</v>
       </c>
     </row>
     <row r="7">
@@ -5297,28 +5727,458 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>207.94921875</v>
+        <v>224.4375</v>
       </c>
       <c r="V7" t="n">
-        <v>358.8046875</v>
+        <v>146.1796875</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23046875</v>
+        <v>359.54296875</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.37890625</v>
+        <v>888.64453125</v>
       </c>
       <c r="Y7" t="n">
-        <v>78.01171875</v>
+        <v>93.515625</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.76171875</v>
+        <v>86.37890625</v>
       </c>
       <c r="AA7" t="n">
-        <v>25.1015625</v>
+        <v>1102.25390625</v>
       </c>
       <c r="AB7" t="n">
-        <v>1296.17578125</v>
+        <v>1456.62890625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>74.91015625</v>
+      </c>
+      <c r="V8" t="n">
+        <v>28.029296875</v>
+      </c>
+      <c r="W8" t="n">
+        <v>420.439453125</v>
+      </c>
+      <c r="X8" t="n">
+        <v>679.15234375</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15.875</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>562.5703125</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1393.03125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>192.4951171875</v>
+      </c>
+      <c r="W9" t="n">
+        <v>950.2734375</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1199.5458984375</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4.482421875</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>649.2041015625</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>997.8369140625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>66.869140625</v>
+      </c>
+      <c r="V10" t="n">
+        <v>235.0400390625</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1217.1181640625</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1676.2197265625</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>62.3779296875</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>160.43603515625</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>108.53759765625</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1466.6298828125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>62.688720703125</v>
+      </c>
+      <c r="V11" t="n">
+        <v>135.617431640625</v>
+      </c>
+      <c r="W11" t="n">
+        <v>308.6982421875</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1392.13916015625</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>231.024169921875</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>253.002685546875</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>470.04052734375</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>147.1781005859375</v>
+      </c>
+      <c r="V12" t="n">
+        <v>88.7066650390625</v>
+      </c>
+      <c r="W12" t="n">
+        <v>920.3004150390625</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>86.95751953125</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>32.2342529296875</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>747.3848876953125</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>672.171630859375</v>
       </c>
     </row>
   </sheetData>
@@ -5350,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>85133.39999999999</v>
+        <v>298410</v>
       </c>
     </row>
     <row r="3">
@@ -5358,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>51746.1</v>
+        <v>298410</v>
       </c>
     </row>
     <row r="4">
@@ -5366,7 +6226,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2136960.2</v>
+        <v>1193640</v>
       </c>
     </row>
     <row r="5">
@@ -5374,7 +6234,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25242</v>
+        <v>298410</v>
       </c>
     </row>
     <row r="6">
@@ -5382,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4191434.1</v>
+        <v>1790460</v>
       </c>
     </row>
   </sheetData>
@@ -5475,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.05</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5497,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.05</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5519,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.05</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5541,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.05</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5572,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -5594,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -5616,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -5638,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>33.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -5660,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>33.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -5682,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -5698,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>11.75</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5720,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -5742,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -5764,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -5786,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -5808,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>40.2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -5830,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -5846,7 +6706,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -5868,7 +6728,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -5890,7 +6750,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -5912,7 +6772,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -5934,7 +6794,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -5956,7 +6816,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -5978,7 +6838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -6000,7 +6860,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
